--- a/OutofLight/Assets/Inventory/Diverse annat/Dörrtransitioner.xlsx
+++ b/OutofLight/Assets/Inventory/Diverse annat/Dörrtransitioner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OutofLight\OutofLight\Assets\Inventory\Diverse annat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AD41BA-1AD4-4B8B-B7CA-BE3EE7583620}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E069C9A5-96D8-4589-AE94-B7C74F6172BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -518,11 +518,11 @@
         <v>5</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P22" si="0">N3</f>
+        <f t="shared" ref="P3:P11" si="0">N3</f>
         <v>Library</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q22" si="1">M3</f>
+        <f t="shared" ref="Q3:Q11" si="1">M3</f>
         <v>MainHall</v>
       </c>
     </row>

--- a/OutofLight/Assets/Inventory/Diverse annat/Dörrtransitioner.xlsx
+++ b/OutofLight/Assets/Inventory/Diverse annat/Dörrtransitioner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OutofLight\OutofLight\Assets\Inventory\Diverse annat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E069C9A5-96D8-4589-AE94-B7C74F6172BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66970F33-2561-4122-BCFC-FCAF4ABA4B5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/OutofLight/Assets/Inventory/Diverse annat/Dörrtransitioner.xlsx
+++ b/OutofLight/Assets/Inventory/Diverse annat/Dörrtransitioner.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OutofLight\OutofLight\Assets\Inventory\Diverse annat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66970F33-2561-4122-BCFC-FCAF4ABA4B5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA970C3-84A4-4631-85B4-5D751BAB61B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -462,7 +463,7 @@
   <dimension ref="M1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
